--- a/output/0/tRNA-Val-AAC-2-1.xlsx
+++ b/output/0/tRNA-Val-AAC-2-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>chr5</t>
   </si>
   <si>
-    <t>180615416</t>
-  </si>
-  <si>
-    <t>180615439</t>
+    <t>180615832</t>
+  </si>
+  <si>
+    <t>180615855</t>
   </si>
   <si>
     <t>0</t>
@@ -29,196 +29,244 @@
     <t>+</t>
   </si>
   <si>
-    <t>180615436</t>
+    <t>180615852</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GAAAAAAAAAAATGAAAAAG</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>14% (35)</t>
+  </si>
+  <si>
+    <t>2% (11)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 0, Doench 2016: 14%, Moreno-Mateos: 2%</t>
+  </si>
+  <si>
+    <t>180615833</t>
+  </si>
+  <si>
+    <t>180615856</t>
+  </si>
+  <si>
+    <t>180615853</t>
   </si>
   <si>
     <t>150,150,150</t>
   </si>
   <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GTTTCCGCCCGGTTTCGAAC</t>
+    <t>AAAAAAAAAAATGAAAAAGT</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>25% (33)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>180615878</t>
+  </si>
+  <si>
+    <t>180615875</t>
+  </si>
+  <si>
+    <t>GCTCGTCCGGGATTTGAACC</t>
   </si>
   <si>
     <t>CGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>25% (33)</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>50% (45)</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>180615879</t>
+  </si>
+  <si>
+    <t>180615876</t>
+  </si>
+  <si>
+    <t>CTCGTCCGGGATTTGAACCC</t>
+  </si>
+  <si>
+    <t>56% (52)</t>
+  </si>
+  <si>
+    <t>52% (46)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>180615861</t>
+  </si>
+  <si>
+    <t>180615884</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>180615864</t>
+  </si>
+  <si>
+    <t>GAGGTCCCGGGTTCAAATCC</t>
+  </si>
+  <si>
+    <t>50% (50)</t>
+  </si>
+  <si>
+    <t>61% (50)</t>
+  </si>
+  <si>
+    <t>180615873</t>
+  </si>
+  <si>
+    <t>180615896</t>
+  </si>
+  <si>
+    <t>CTTTGGGTGCGAGAGGTCCC</t>
+  </si>
+  <si>
+    <t>43% (48)</t>
+  </si>
+  <si>
+    <t>83% (63)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>180615874</t>
+  </si>
+  <si>
+    <t>180615897</t>
+  </si>
+  <si>
+    <t>180615877</t>
+  </si>
+  <si>
+    <t>GCTTTGGGTGCGAGAGGTCC</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>96% (79)</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>180615880</t>
+  </si>
+  <si>
+    <t>180615903</t>
+  </si>
+  <si>
+    <t>180615883</t>
+  </si>
+  <si>
+    <t>ATTCTCGCTTTGGGTGCGAG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>89% (63)</t>
+  </si>
+  <si>
+    <t>41% (41)</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>180615417</t>
-  </si>
-  <si>
-    <t>180615440</t>
-  </si>
-  <si>
-    <t>180615437</t>
-  </si>
-  <si>
-    <t>TTTCCGCCCGGTTTCGAACC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>32% (44)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>180615418</t>
-  </si>
-  <si>
-    <t>180615441</t>
-  </si>
-  <si>
-    <t>180615438</t>
-  </si>
-  <si>
-    <t>TTCCGCCCGGTTTCGAACCG</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>180615420</t>
-  </si>
-  <si>
-    <t>180615443</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>180615423</t>
-  </si>
-  <si>
-    <t>GTCCCCGGTTCGAAACCGGG</t>
-  </si>
-  <si>
-    <t>100% (76)</t>
-  </si>
-  <si>
-    <t>90% (69)</t>
-  </si>
-  <si>
-    <t>79</t>
+    <t>180615889</t>
+  </si>
+  <si>
+    <t>180615912</t>
+  </si>
+  <si>
+    <t>180615892</t>
+  </si>
+  <si>
+    <t>AGGGGTATGATTCTCGCTTT</t>
+  </si>
+  <si>
+    <t>94% (75)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>180615890</t>
+  </si>
+  <si>
+    <t>180615913</t>
+  </si>
+  <si>
+    <t>180615893</t>
+  </si>
+  <si>
+    <t>TAGGGGTATGATTCTCGCTT</t>
+  </si>
+  <si>
+    <t>12% (33)</t>
+  </si>
+  <si>
+    <t>63% (51)</t>
   </si>
   <si>
     <t>61</t>
-  </si>
-  <si>
-    <t>180615446</t>
-  </si>
-  <si>
-    <t>180615426</t>
-  </si>
-  <si>
-    <t>AAGGTCCCCGGTTCGAAACC</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>82% (62)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>180615424</t>
-  </si>
-  <si>
-    <t>180615447</t>
-  </si>
-  <si>
-    <t>180615427</t>
-  </si>
-  <si>
-    <t>AAAGGTCCCCGGTTCGAAAC</t>
-  </si>
-  <si>
-    <t>19% (38)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>180615435</t>
-  </si>
-  <si>
-    <t>180615458</t>
-  </si>
-  <si>
-    <t>180615455</t>
-  </si>
-  <si>
-    <t>CCGGGGACCTTTCGCGTGTT</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>95% (76)</t>
-  </si>
-  <si>
-    <t>180615442</t>
-  </si>
-  <si>
-    <t>180615465</t>
-  </si>
-  <si>
-    <t>180615445</t>
-  </si>
-  <si>
-    <t>ACGTTCGCCTAACACGCGAA</t>
-  </si>
-  <si>
-    <t>95% (67)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>69</t>
   </si>
 </sst>
 </file>
@@ -263,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -307,22 +355,22 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -333,10 +381,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -345,16 +393,16 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -366,22 +414,22 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -392,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -404,43 +452,43 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
@@ -451,55 +499,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
         <v>3</v>
@@ -510,55 +558,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S5" t="s">
         <v>3</v>
@@ -569,55 +617,55 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S6" t="s">
         <v>3</v>
@@ -628,40 +676,40 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
         <v>59</v>
@@ -670,13 +718,13 @@
         <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
         <v>3</v>
@@ -687,57 +735,175 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
         <v>3</v>
       </c>
     </row>
